--- a/data/Subset1_WithDialogActs/Towers 4_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Towers 4_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3995,12 +3995,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4163,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4205,12 +4205,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4499,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5003,12 +5003,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5171,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
